--- a/src/main/resources/2.3.xlsx
+++ b/src/main/resources/2.3.xlsx
@@ -15,8 +15,83 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="E6" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="E7" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="E8" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="E11" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="E12" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="E13" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="E14" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="E15" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="E16" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="E19" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="E20" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="E21" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="E22" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="E23" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="E24" authorId="0">
+      <text/>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
   <si>
     <t>378282246310005</t>
   </si>
@@ -145,9 +220,6 @@
     <t>qwertyuiop</t>
   </si>
   <si>
-    <t>" asd 123 "</t>
-  </si>
-  <si>
     <t>!@#$%^&amp;*()_+=-/\'.,</t>
   </si>
   <si>
@@ -176,13 +248,31 @@
   </si>
   <si>
     <t>Leave the field empty</t>
+  </si>
+  <si>
+    <t>asdfghjkl</t>
+  </si>
+  <si>
+    <t>zxcvbnm</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> asdf 456 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> qwer 123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zxcv 7890 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +340,19 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -275,7 +378,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -322,150 +425,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -553,6 +521,24 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -597,42 +583,66 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E25" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E25" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:E25">
     <filterColumn colId="0"/>
     <filterColumn colId="2"/>
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="5" name="Step #" dataDxfId="19">
+    <tableColumn id="5" name="Step #" dataDxfId="9">
       <calculatedColumnFormula>IF(Таблица1[[#This Row],[Test Action]]=""," ",ROW()-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Test Action" dataDxfId="18"/>
-    <tableColumn id="6" name="Data" dataDxfId="10"/>
-    <tableColumn id="3" name="Expected_x000a_Results" dataDxfId="17"/>
-    <tableColumn id="1" name="Status" dataDxfId="16"/>
+    <tableColumn id="2" name="Test Action" dataDxfId="8"/>
+    <tableColumn id="6" name="Data" dataDxfId="7"/>
+    <tableColumn id="3" name="Expected_x000a_Results" dataDxfId="6"/>
+    <tableColumn id="1" name="Status" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:D19" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:D19" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:D19">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" name="№ п/п" dataDxfId="14"/>
-    <tableColumn id="5" name="Тип карты" dataDxfId="13"/>
-    <tableColumn id="2" name="Номер карты" dataDxfId="12"/>
-    <tableColumn id="3" name="Длина" dataDxfId="11">
+    <tableColumn id="4" name="№ п/п" dataDxfId="3"/>
+    <tableColumn id="5" name="Тип карты" dataDxfId="2"/>
+    <tableColumn id="2" name="Номер карты" dataDxfId="1"/>
+    <tableColumn id="3" name="Длина" dataDxfId="0">
       <calculatedColumnFormula>LEN(C2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -928,7 +938,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -972,11 +982,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>36</v>
@@ -988,14 +998,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1006,11 +1016,11 @@
       <c r="B5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>36</v>
@@ -1024,14 +1034,14 @@
       <c r="B6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="10">
-        <v>1234567890</v>
+      <c r="C6" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1040,13 +1050,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>36</v>
@@ -1058,16 +1068,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1083,7 +1093,7 @@
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -1095,11 +1105,11 @@
         <v>7</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>36</v>
@@ -1111,14 +1121,14 @@
         <v>8</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1129,11 +1139,11 @@
       <c r="B13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>41</v>
+      <c r="C13" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>36</v>
@@ -1147,14 +1157,14 @@
       <c r="B14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="10">
-        <v>1234567890</v>
+      <c r="C14" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1163,13 +1173,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>36</v>
@@ -1181,16 +1191,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1206,7 +1216,7 @@
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="10"/>
@@ -1218,11 +1228,11 @@
         <v>13</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>36</v>
@@ -1234,14 +1244,14 @@
         <v>14</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1252,11 +1262,11 @@
       <c r="B21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>41</v>
+      <c r="C21" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>36</v>
@@ -1270,11 +1280,11 @@
       <c r="B22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="10">
-        <v>1234567890</v>
+      <c r="C22" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>36</v>
@@ -1286,13 +1296,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>36</v>
@@ -1304,13 +1314,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>36</v>
@@ -1328,10 +1338,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E25">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$E2="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$E2="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1342,8 +1352,9 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
